--- a/BCB520/posts/T4-BarriesData/Attributes.xlsx
+++ b/BCB520/posts/T4-BarriesData/Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/BCB520/posts/T4-BarriesData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9531D629-2FAB-C546-AA2F-BB96511B76CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E09E0F-FDEE-8044-A239-866808F91169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{E9EAE5F4-85D5-B740-88AA-9F842F984CD4}"/>
   </bookViews>
@@ -161,7 +161,7 @@
     <t>negative values is attraction to the base, positive is avoidance</t>
   </si>
   <si>
-    <t>Whether fitness functions were ON (I) or OFF (H)</t>
+    <t>I, H, G, or K - an inscrutable code about fitness conditions</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
